--- a/Question_Set2/Software skills/Google Analytics 4.xlsx
+++ b/Question_Set2/Software skills/Google Analytics 4.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a digital marketer tasked with setting up Google Analytics 4 (GA4) tracking for a new website with multiple subdomains. Your objective is to ensure accurate data collection for each subdomain and effectively measure the success of marketing campaigns.Which action should you take to achieve this goal?', 'ques_type': 2, 'options': ['Set up separate GA4 properties for each subdomain.', 'Set up custom dimensions in GA4 to track each subdomain.', 'Implement cross-domain tracking in GA4 for each subdomain.', 'Use one GA4 property and configure it to track all subdomains together.'], 'score': 'Use one GA4 property and configure it to track all subdomains together.'}, {'title': 'You are a digital marketing analyst using Google Analytics 4 (GA4) to evaluate the performance of a marketing campaign for an e-commerce website. Your goal is to identify which marketing channels are driving the highest conversion rates.What action should you take?', 'ques_type': 2, 'options': ['Analyze each channel’s click-through rates.', 'Focus on each channel’s impression count.', "Use GA4's conversion path report.", 'Examine each channel’s landing page bounce rates.'], 'score': 'Focus on each channel’s impression count.'}, {'title': 'You are a digital marketing manager overseeing a multi-platform advertising campaign. You have already integrated Google Ads and Data Studio for performance tracking and analysis. Your next goal is to incorporate data from Meta Ads and LinkedIn Ads into Google Analytics 4 (GA4) for comprehensive campaign insights.Which action should you take?', 'ques_type': 2, 'options': ['Manually input Meta Ads and LinkedIn Ads data into GA4.', 'Analyze Meta Ads and LinkedIn Ads data separately from GA4.', 'Export data from Meta Ads and LinkedIn Ads to CSV files and import them into Google Sheets.', 'Use third-party connectors to import Meta Ads and LinkedIn Ads data into GA4.'], 'score': 'Use third-party connectors to import Meta Ads and LinkedIn Ads data into GA4.'}, {'title': 'You are a data analyst for a retail company using Google Analytics 4 (GA4) to examine sales data. Your task is to identify trends and patterns, with a particular emphasis on highlighting the top-performing product categories as requested by the sales team.Which action should you take?', 'ques_type': 2, 'options': ["Generate a pie chart in GA4 showing each product category's contribution to total sales.", 'Generate a heat map in GA4 illustrating sales distribution across product categories and time.', 'Generate a line graph in GA4 depicting the sales trend for each product category over time.', 'Generate a bar chart in GA4 comparing sales revenue for different product categories.'], 'score': 'Generate a bar chart in GA4 comparing sales revenue for different product categories.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a digital marketer tasked with setting up Google Analytics 4 (GA4) tracking for a new website with multiple subdomains. Your objective is to ensure accurate data collection for each subdomain and effectively measure the success of marketing campaigns.Which action should you take to achieve this goal?",
+        "ques_type": 2,
+        "options": [
+            "Set up separate GA4 properties for each subdomain.",
+            "Set up custom dimensions in GA4 to track each subdomain.",
+            "Implement cross-domain tracking in GA4 for each subdomain.",
+            "Use one GA4 property and configure it to track all subdomains together."
+        ],
+        "score": "Use one GA4 property and configure it to track all subdomains together."
+    },
+    {
+        "title": "You are a digital marketing analyst using Google Analytics 4 (GA4) to evaluate the performance of a marketing campaign for an e-commerce website. Your goal is to identify which marketing channels are driving the highest conversion rates.What action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Analyze each channel\u2019s click-through rates.",
+            "Focus on each channel\u2019s impression count.",
+            "Use GA4's conversion path report.",
+            "Examine each channel\u2019s landing page bounce rates."
+        ],
+        "score": "Focus on each channel\u2019s impression count."
+    },
+    {
+        "title": "You are a digital marketing manager overseeing a multi-platform advertising campaign. You have already integrated Google Ads and Data Studio for performance tracking and analysis. Your next goal is to incorporate data from Meta Ads and LinkedIn Ads into Google Analytics 4 (GA4) for comprehensive campaign insights.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Manually input Meta Ads and LinkedIn Ads data into GA4.",
+            "Analyze Meta Ads and LinkedIn Ads data separately from GA4.",
+            "Export data from Meta Ads and LinkedIn Ads to CSV files and import them into Google Sheets.",
+            "Use third-party connectors to import Meta Ads and LinkedIn Ads data into GA4."
+        ],
+        "score": "Use third-party connectors to import Meta Ads and LinkedIn Ads data into GA4."
+    },
+    {
+        "title": "You are a data analyst for a retail company using Google Analytics 4 (GA4) to examine sales data. Your task is to identify trends and patterns, with a particular emphasis on highlighting the top-performing product categories as requested by the sales team.Which action should you take?",
+        "ques_type": 2,
+        "options": [
+            "Generate a pie chart in GA4 showing each product category's contribution to total sales.",
+            "Generate a heat map in GA4 illustrating sales distribution across product categories and time.",
+            "Generate a line graph in GA4 depicting the sales trend for each product category over time.",
+            "Generate a bar chart in GA4 comparing sales revenue for different product categories."
+        ],
+        "score": "Generate a bar chart in GA4 comparing sales revenue for different product categories."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
